--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_99.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(107.1, 111.48)]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[('0:01:01.680000', '0:01:07.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:44.200000', '0:00:54.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:25.260000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.0, 16.52)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7'], ['G', 'A', 'A/b7']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A'], ['G', 'A', 'A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195), (43.998185, 47.539229)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326), (19.371814, 23.760385)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:57.700000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[('0:01:24', '0:01:30.840000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.52, 25.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.08, 43.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
